--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\C++ 2年生 制作\Habit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9127749E-8DC9-4F33-9909-33620C11EA56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E20995-2E8E-4079-A4D5-8F82B0D21F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="6" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="ミミズ" sheetId="6" r:id="rId3"/>
     <sheet name="蜘蛛" sheetId="3" r:id="rId4"/>
     <sheet name="音" sheetId="5" r:id="rId5"/>
-    <sheet name="嗅覚" sheetId="9" r:id="rId6"/>
-    <sheet name="体温" sheetId="8" r:id="rId7"/>
-    <sheet name="視覚" sheetId="7" r:id="rId8"/>
+    <sheet name="視覚" sheetId="7" r:id="rId6"/>
+    <sheet name="マップ" sheetId="10" r:id="rId7"/>
+    <sheet name="嗅覚" sheetId="9" r:id="rId8"/>
+    <sheet name="体温" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -18575,6 +18576,8538 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3657600" cy="914400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05D6041-2427-4A1A-8337-11B691277BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="1197429"/>
+          <a:ext cx="3657600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>考え中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="195" name="正方形/長方形 194">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D67162-817E-4666-A665-D6DB674348C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23349857" y="1197430"/>
+          <a:ext cx="1197429" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="196" name="正方形/長方形 195">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26ADEB1-2596-4933-963C-39F02143F801}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23349856" y="5388429"/>
+          <a:ext cx="1197429" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="204" name="正方形/長方形 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C84C284-FBED-43E7-A125-3E1F2D02900B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23050500" y="14369143"/>
+          <a:ext cx="1496786" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="202" name="正方形/長方形 201">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F11D2E43-511C-4176-B58D-D9C7D5B3338F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19458215" y="15865929"/>
+          <a:ext cx="898071" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="197" name="正方形/長方形 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AACDF975-F9B8-4971-9C20-6E64437345AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23349857" y="8082643"/>
+          <a:ext cx="1197429" cy="2694214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="194" name="正方形/長方形 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884C056B-4562-4612-9DCA-A97E5E9B777C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20955000" y="299357"/>
+          <a:ext cx="898072" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="186" name="正方形/長方形 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29195F61-1CD0-47A9-920E-E1026F1BA805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15267214" y="1197430"/>
+          <a:ext cx="598715" cy="2993570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="正方形/長方形 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602C6F71-1AF1-49A8-BF51-D3A98F74E149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21853071" y="6585857"/>
+          <a:ext cx="1496786" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="正方形/長方形 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F5623D-0D00-487A-9F9B-04F75B3DFAC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16165286" y="14967857"/>
+          <a:ext cx="299357" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="正方形/長方形 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC53CF7-9701-4231-A6C3-FCFF12AA7BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11674929" y="15566571"/>
+          <a:ext cx="598714" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF79FCF-9F62-4183-9902-AB6A48BD014A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9280071" y="12273643"/>
+          <a:ext cx="1197429" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>295545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29251F6E-8516-4E01-A24A-85F5FA2F1CED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4490357" y="14065974"/>
+          <a:ext cx="898072" cy="901883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>293641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FEDEE8-F957-4CEB-8C38-23EF26F0B6ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095499" y="13471071"/>
+          <a:ext cx="1197429" cy="1491070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B8D5EC-1871-4BAA-BB94-6C68011AA00C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8681357" y="14668500"/>
+          <a:ext cx="1796143" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="正方形/長方形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34DDFAE-5DC8-4682-8B57-F841819924A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11674929" y="13770429"/>
+          <a:ext cx="1796142" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EF8CE9-60E7-4146-B7F3-CF9D0301A37F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13471071" y="11674928"/>
+          <a:ext cx="598714" cy="4490357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE55B4C6-75E8-4C95-8746-B534CDB08A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6585857" y="12273643"/>
+          <a:ext cx="2694214" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>21228</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4F8933-F9EA-42EE-A0C0-A1124C0F1DE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="14069787"/>
+          <a:ext cx="619942" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC5EAA9-1422-4517-AA72-65389D259FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11674929" y="1197429"/>
+          <a:ext cx="598714" cy="3592286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56D289AC-DDBB-47A7-9F05-E841FD23C887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11674929" y="5987143"/>
+          <a:ext cx="598714" cy="3292928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295546</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2216B8-157A-4C9A-95AB-817A153B8196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2091689" y="8681357"/>
+          <a:ext cx="9583239" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E5A0B9-C519-425F-BDC7-0A1429408E51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1197428"/>
+          <a:ext cx="22451786" cy="14967857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>297451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="スマイル 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35914F26-3567-49D7-9DDB-6345AD84B8CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="299357"/>
+          <a:ext cx="898072" cy="896165"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D836AC-66DD-4314-B672-E24712631460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="898071"/>
+          <a:ext cx="898072" cy="898072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>蛾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F64F5EF-890A-4DC9-AC05-AD1EA57513B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="2095499"/>
+          <a:ext cx="898072" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ミミズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2628EA57-BFA8-4356-8FAA-FBC448320734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="3294834"/>
+          <a:ext cx="913313" cy="896166"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>蜘蛛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>297723</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="楕円 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03940B6A-DD14-4C34-9FA2-4CD105D35A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="297723" y="6305551"/>
+          <a:ext cx="913313" cy="879020"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>蜘蛛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898072" cy="299357"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94B53E91-7AD7-428A-B9DD-9A57D2BB9674}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="1197429"/>
+          <a:ext cx="898072" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898072" cy="299357"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DDE8EFC-44DD-499B-9FCE-A383AFACFA2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="5687786"/>
+          <a:ext cx="898072" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>造網性</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898072" cy="299357"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029CFAB3-4D3D-42DE-A577-9CE502799758}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="7184571"/>
+          <a:ext cx="898072" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>徘徊性</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F8FCE0-EDF0-4710-87A7-C447DE4A6933}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292929" y="2394857"/>
+          <a:ext cx="2993572" cy="5089072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11429</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1C25BF-389A-4F39-91BA-9DBB027C1FC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7495358" y="2408464"/>
+          <a:ext cx="2982142" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>136056</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>136057</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>145869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035E51E0-7EC0-4591-A994-55F3D12576D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6422556" y="1371873"/>
+          <a:ext cx="898072" cy="869496"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>蛾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{162ED903-9E27-4BC4-ACDF-475C1ED3A4A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7483929" y="5987143"/>
+          <a:ext cx="2993572" cy="1496786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>145868</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>207917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>157299</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>207917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="四角形: 角を丸くする 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BC3C7B-E92B-4ABE-B895-B4CC68880280}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10623368" y="1405346"/>
+          <a:ext cx="909502" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>焚火</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="四角形: 角を丸くする 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733F6651-FE07-45DA-BD09-5E84CD1E8E1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="7783286"/>
+          <a:ext cx="898072" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898072" cy="299357"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB546D5C-150D-4B9E-97F7-369604A8C417}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="8681357"/>
+          <a:ext cx="898072" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ギミック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20956</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>284116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B3672BE-76F1-4939-B9B1-7BC9BC8F4A14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="7783286"/>
+          <a:ext cx="919028" cy="882830"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>音</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>20956</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>284115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="楕円 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A6521D9-420F-45A3-9286-D1C6A36B128F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="9280071"/>
+          <a:ext cx="919028" cy="882830"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>視覚</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>149680</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="楕円 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454D0452-3C1A-4305-8D96-5D1EE1929F35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10627179" y="4937488"/>
+          <a:ext cx="898072" cy="873306"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>蛾</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145870</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>21226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145871</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="スマイル 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2958722-2961-4367-A441-62D3700DE8D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2241370" y="4212226"/>
+          <a:ext cx="898072" cy="892355"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46F139B-A5C3-462B-87A0-057496A4986C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13471072" y="2394856"/>
+          <a:ext cx="598714" cy="8082643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>15242</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>145869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="楕円 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61C0F11-DC30-46E7-9F86-2F9F4E33A7E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8082643" y="11244945"/>
+          <a:ext cx="913313" cy="875210"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>音</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="正方形/長方形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E409C69E-EAE4-49E4-B100-26158F1940BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9579429" y="9280072"/>
+          <a:ext cx="598714" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1922F58C-82DD-4356-B0FB-EBA3199C52CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7184571" y="10477500"/>
+          <a:ext cx="5089072" cy="598716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B66E71C-1474-4C9F-9F9B-5AE53498B8F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11674929" y="11076215"/>
+          <a:ext cx="598714" cy="1496786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>15512</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD5B658-D6FE-433C-92D1-BE6D4EDA9AB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15267214" y="14369143"/>
+          <a:ext cx="3907155" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>295546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="正方形/長方形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706D3BC7-9B39-41F0-B08E-193C7ECFCA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15267214" y="8681357"/>
+          <a:ext cx="598714" cy="1792332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>284116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE282DBB-611C-45D2-8B09-43BE53455E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3292929" y="10477500"/>
+          <a:ext cx="2095499" cy="1780902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{714E56B0-4649-467D-9F19-BE444B398030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4789714" y="12273643"/>
+          <a:ext cx="598714" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="正方形/長方形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AABC81-601B-44D9-9D1D-7AABA466AA6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8082643" y="14069785"/>
+          <a:ext cx="598714" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>293643</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17148</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>132534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="楕円 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAD786FA-9008-46FD-BDA2-1667A693F766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3586572" y="9422132"/>
+          <a:ext cx="920933" cy="888545"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>音</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D6E103-B4E0-4C48-9FE4-B42CD8CBEEC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5388430" y="10477500"/>
+          <a:ext cx="598714" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="103" name="コネクタ: カギ線 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D962D1D9-C2D0-4484-92F5-130909AFC8A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8999766" y="11683503"/>
+          <a:ext cx="2076448" cy="3883068"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="コネクタ: カギ線 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5821C260-60D5-434E-83F3-0977728AE47E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7483930" y="13471071"/>
+          <a:ext cx="3592285" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="コネクタ: カギ線 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B4C200F-8FD6-4881-A26C-178636815611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="72" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6286500" y="11683503"/>
+          <a:ext cx="1796143" cy="1787568"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="119" name="直線コネクタ 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE05F1D6-521E-4770-8E49-16DBD0D14ABC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="13471071"/>
+          <a:ext cx="1197429" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>287928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>291739</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="コネクタ: カギ線 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B960144D-C446-46E8-981C-AA8525B58423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="89" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="2694215" y="9867357"/>
+          <a:ext cx="890453" cy="3005000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="コネクタ: カギ線 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BA48AC4-3B20-48F1-9ECA-7D7BCD1CC7C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2694214" y="12872357"/>
+          <a:ext cx="2993572" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="コネクタ: カギ線 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8214B62-77BB-489E-B6B9-4DC60B8CBAA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4340679" y="11225894"/>
+          <a:ext cx="3592285" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58333"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>20958</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>287928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1E39E2-273B-4B05-A505-D0669BAB5C11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="89" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4511315" y="9867357"/>
+          <a:ext cx="2074542" cy="11429"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>157569</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>169000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>157570</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>169001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="楕円 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBED3AA-1C44-4DEE-9029-BE74360B3D59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14227355" y="10646500"/>
+          <a:ext cx="898072" cy="898072"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="7030A0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ミミズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F50D98-E8FC-44E8-9AC3-3A70875D9974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15267213" y="11674928"/>
+          <a:ext cx="1197429" cy="1496786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>159475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="コネクタ: カギ線 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696308EF-0782-4C34-9ED1-D339DD8E264F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10776858" y="9878786"/>
+          <a:ext cx="3452403" cy="1220560"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 39758"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9797</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>172810</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="コネクタ: カギ線 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D4A857-EFF8-4499-9DB6-2AE7ABC478EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="134" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="14137959" y="8622981"/>
+          <a:ext cx="2567667" cy="1486992"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99889"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>9797</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>172811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="コネクタ: カギ線 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{951333DB-8A02-4C36-992D-A6FF8DBC9D05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="134" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="13263018" y="12963661"/>
+          <a:ext cx="4018191" cy="1187633"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -71"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>136075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="コネクタ: カギ線 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6FF993-7C71-4B8A-9D57-EFB7EE891858}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="15103932" y="11076217"/>
+          <a:ext cx="3755569" cy="1197427"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48190"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>297451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="正方形/長方形 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD307C59-3CC2-4628-AB4D-091DC0F52E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15865930" y="8679451"/>
+          <a:ext cx="1197428" cy="301263"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="正方形/長方形 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7958FBA4-E356-40CA-B807-5FEC08F264D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14069786" y="6904265"/>
+          <a:ext cx="2694214" cy="579664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E172FAD-E74D-4C47-AFAC-A386FD5C9BA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764001" y="5687786"/>
+          <a:ext cx="299356" cy="2993571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="正方形/長方形 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA9AD0D9-8696-4B7A-A9D1-991F669C051A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15865929" y="12872357"/>
+          <a:ext cx="4191000" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="正方形/長方形 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A14D9D-1AB1-438F-920B-13F5A78ACD67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17662071" y="10477499"/>
+          <a:ext cx="2394858" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="正方形/長方形 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AA0E1E8-3966-4CD7-BAB2-83D8D6641D0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17063357" y="10178143"/>
+          <a:ext cx="898071" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="正方形/長方形 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54508F63-05B0-4813-9420-9E08F00196E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19458214" y="11674929"/>
+          <a:ext cx="598714" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="正方形/長方形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB78151F-C891-4E03-8A70-16973AB03A69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15267214" y="5388429"/>
+          <a:ext cx="3592286" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>149678</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>157027</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>170635</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="楕円 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{281B9C01-91CD-461E-9AEA-9F153C644BB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21104678" y="10335170"/>
+          <a:ext cx="919028" cy="877115"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>蜘蛛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>157842</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>188324</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>159204</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="楕円 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB78F826-A5B8-478E-B43F-7CA9F93C1A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19017342" y="5848894"/>
+          <a:ext cx="928553" cy="896167"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>蜘蛛</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>289558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="正方形/長方形 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E32246A-F5B8-40E2-A731-263EB0EEE585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18260786" y="6875415"/>
+          <a:ext cx="2394857" cy="309155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="正方形/長方形 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB06E1C-C9EF-456C-A92E-E3B2BB670C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18560143" y="8382000"/>
+          <a:ext cx="3592286" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>297452</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11431</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="正方形/長方形 182">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E054D475-C080-4B17-A59F-C591815EB246}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21851166" y="6885214"/>
+          <a:ext cx="301263" cy="1508217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>15241</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="184" name="正方形/長方形 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306D7B70-3C01-4EB4-9956-C3AA258B55CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15881170" y="3891643"/>
+          <a:ext cx="2080259" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="185" name="正方形/長方形 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A80BF3-26C2-43FF-AC24-DFDA3CE400C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17063358" y="2394857"/>
+          <a:ext cx="3592286" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17419</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="187" name="正方形/長方形 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A10405B-E323-4B13-B804-64A0F5E41D23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18260786" y="8382001"/>
+          <a:ext cx="299357" cy="616132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="188" name="正方形/長方形 187">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D740E71-C64D-41BB-8CCC-08C21B44C7D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20056929" y="3891643"/>
+          <a:ext cx="299356" cy="1796143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="189" name="正方形/長方形 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA07CC6-0FB0-4F60-B3F9-5986D335C1CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19158857" y="3891643"/>
+          <a:ext cx="898071" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="190" name="正方形/長方形 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B16EFD-A38A-497C-8036-15F145E58950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22152428" y="2394857"/>
+          <a:ext cx="299358" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="191" name="正方形/長方形 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C07BBE-7C0E-4E5C-ACC3-4F36EF8A0A43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21553714" y="3592286"/>
+          <a:ext cx="1796143" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>1903</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="192" name="正方形/長方形 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39109CA9-9E12-4130-B758-D61AD437B3FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20358189" y="5089071"/>
+          <a:ext cx="1794240" cy="299358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="193" name="正方形/長方形 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7693CFB3-A42C-472B-932B-DBE992BC190C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20356286" y="5388429"/>
+          <a:ext cx="299357" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="198" name="正方形/長方形 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{051AEC33-CCEF-40C7-B05B-A33E7D424F9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20056929" y="11076214"/>
+          <a:ext cx="898072" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="199" name="正方形/長方形 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8812000B-6234-4233-9C4C-9261D8A5BFD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21254357" y="12872357"/>
+          <a:ext cx="598714" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="200" name="正方形/長方形 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D22862E-7BBB-4B38-A3F9-4C21C2B37475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19158857" y="14369143"/>
+          <a:ext cx="898071" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="201" name="正方形/長方形 200">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D80D5E-BB34-406C-AA8B-742613B1487B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23050500" y="11974285"/>
+          <a:ext cx="299357" cy="2394857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="203" name="正方形/長方形 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4243537F-425B-4E93-9A7A-BDD9D51FB028}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22152429" y="11674929"/>
+          <a:ext cx="1197428" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="205" name="正方形/長方形 204">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8CB365-35AD-4D02-8642-846F9517781B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22451786" y="10477500"/>
+          <a:ext cx="898071" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="206" name="正方形/長方形 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A8D0A8F-2D14-4067-8204-C8B28509DDE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20955000" y="9280071"/>
+          <a:ext cx="1197429" cy="299358"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="正方形/長方形 206">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A52D8B14-C296-4472-AA59-BC51AF782F5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21254357" y="12573000"/>
+          <a:ext cx="299357" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>132246</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="230" name="直線矢印コネクタ 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC0A611-1C98-4B87-A734-5B9CB5E045D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2694215" y="1796143"/>
+          <a:ext cx="3724531" cy="7621"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>281925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="直線矢印コネクタ 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F31212-4FA5-4831-B597-E68516E20094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6867782" y="2239464"/>
+          <a:ext cx="17432" cy="5843179"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>124913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8068C81D-09DB-45CA-AAB8-8FD25F892CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="66" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11076214" y="5812699"/>
+          <a:ext cx="1" cy="2269944"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>285070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>288880</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="236" name="直線矢印コネクタ 235">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52F6A4B-BEB8-4305-B0FA-9FF0B665DAEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8980714" y="5374141"/>
+          <a:ext cx="1646465" cy="3810"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>132262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>12383</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="257" name="コネクタ: カギ線 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C62E473-969A-45CF-97CE-8A609732064F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="178" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="19081501" y="13081975"/>
+          <a:ext cx="4358096" cy="611097"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 24687"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="262" name="コネクタ: カギ線 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3F4170-F3DC-4277-AC35-E6DC1A8A2142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="20206607" y="13321394"/>
+          <a:ext cx="2993572" cy="1496785"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="276" name="コネクタ: カギ線 275">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0749027F-6B0C-437F-9AC1-A0B8431334C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="21404036" y="11525249"/>
+          <a:ext cx="1496786" cy="598715"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>284825</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>286546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="コネクタ: カギ線 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119F6ADF-0A30-4701-9565-5DEA016FB6A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="178" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="19906390" y="9131254"/>
+          <a:ext cx="585903" cy="2080967"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="285" name="コネクタ: カギ線 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47715B3-36BD-4705-9726-DDC369401313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="17512393" y="8232322"/>
+          <a:ext cx="1796143" cy="1496786"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="288" name="コネクタ: カギ線 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F3656E-2922-46C3-A5AA-A397201CBEFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17662071" y="6286500"/>
+          <a:ext cx="4789715" cy="1796144"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 75284"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="297" name="コネクタ: カギ線 296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039F97EF-E4D5-460C-BF59-5B03529389AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="20955001" y="4789715"/>
+          <a:ext cx="1796143" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 82576"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>297450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>299356</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="300" name="コネクタ: カギ線 299">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC42E71-0326-496E-B6B7-5A60C39DFE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="20205653" y="3142298"/>
+          <a:ext cx="2394858" cy="301263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="307" name="コネクタ: カギ線 306">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4E1DFE-8E81-49E7-B72F-4C73BD1835BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21553714" y="2095500"/>
+          <a:ext cx="2095500" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 57143"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="314" name="コネクタ: カギ線 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8398B5A1-5ABC-4DA4-BA74-287CA1401773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="21853072" y="4490357"/>
+          <a:ext cx="2993571" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="316" name="コネクタ: カギ線 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E12A6DC4-4E2F-4D4F-9E7B-3F8684E36E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22900821" y="6436178"/>
+          <a:ext cx="1197429" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1214"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="321" name="コネクタ: カギ線 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10172302-2A97-494E-B6BB-37B8A1172CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="22002750" y="8232322"/>
+          <a:ext cx="2694214" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>39300</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>286546</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="324" name="コネクタ: カギ線 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D4715BE-146B-4D37-8782-8CB9245EBAE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="178" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="21892371" y="10178143"/>
+          <a:ext cx="858773" cy="286546"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>24357</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="330" name="コネクタ: カギ線 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2532EE7D-99AD-476A-84F0-6FADC07BE09A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="17742423" y="4110650"/>
+          <a:ext cx="2557870" cy="922427"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41495"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="335" name="コネクタ: カギ線 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F789EBD-BE4A-46F0-930F-764EC7FDF6EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="16464643" y="1796143"/>
+          <a:ext cx="2095500" cy="1496786"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="338" name="コネクタ: カギ線 337">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D349AF4-3E9E-49AA-A78E-C248B74C20C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16464643" y="1796143"/>
+          <a:ext cx="6585857" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100207"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="342" name="コネクタ: カギ線 341">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{690F193C-6DA2-49A2-87B4-40E8F457F13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="22451788" y="3292930"/>
+          <a:ext cx="2394858" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="351" name="コネクタ: カギ線 350">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15542B16-D732-4059-A26C-FC7A40A73F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="22751143" y="5089071"/>
+          <a:ext cx="1496786" cy="898072"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="362" name="コネクタ: カギ線 361">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A61DA9A4-22D7-497C-8418-88602E40BE3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18560143" y="3292929"/>
+          <a:ext cx="4191000" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="364" name="直線コネクタ 363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512B1E34-3E9E-4B5F-9617-51C87B38E376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22751143" y="4191000"/>
+          <a:ext cx="0" cy="898071"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>52620</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>294254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="367" name="直線矢印コネクタ 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A29FB3-6B61-40C3-86AB-F2FF45B7D361}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="179" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="19810191" y="5982040"/>
+          <a:ext cx="2940952" cy="5103"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16192</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>161652</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>297451</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="369" name="コネクタ: カギ線 368">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FEA0D34-A6F2-49F3-8962-DDADB48EFC4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="179" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="17662071" y="6302692"/>
+          <a:ext cx="1359081" cy="1179330"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98990"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="372" name="コネクタ: カギ線 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6517D7C-1D41-4CA6-B74D-3D3408447D96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17662071" y="6286500"/>
+          <a:ext cx="3292929" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100413"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>188324</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>12383</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="375" name="直線矢印コネクタ 374">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7018B3-3E3B-43FE-8061-DE24C59E4E86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="179" idx="6"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19945895" y="6286500"/>
+          <a:ext cx="1009105" cy="12383"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="379" name="コネクタ: カギ線 378">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FB54786-4C94-470C-9A29-52CBB0DC80E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7483930" y="13471072"/>
+          <a:ext cx="3592285" cy="598715"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58333"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="382" name="コネクタ: カギ線 381">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE381115-6061-40B1-84B3-330B66D26710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="20056929" y="2394858"/>
+          <a:ext cx="1496786" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -18710,7 +27243,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -18726,79 +27259,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1197429"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>考え中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05D6041-2427-4A1A-8337-11B691277BA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19155,7 +27615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF9CC83-355C-4150-9178-7E56C2D51895}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
@@ -19211,7 +27671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946528EB-2DF4-44C8-B38B-43C72F1CBB61}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
@@ -19242,6 +27702,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FA57F-EA53-4F19-9B20-E6711E249F9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP44" sqref="AP44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A7CEC-AFC4-47A5-AB31-6A76AD09169F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19257,7 +27750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD4CA8-181F-4F84-B583-214EF905D3B7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19271,20 +27764,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FA57F-EA53-4F19-9B20-E6711E249F9D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E20995-2E8E-4079-A4D5-8F82B0D21F39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495FC16-DCA2-424A-94B9-CD297A78B62C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="6" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
@@ -20,8 +20,9 @@
     <sheet name="音" sheetId="5" r:id="rId5"/>
     <sheet name="視覚" sheetId="7" r:id="rId6"/>
     <sheet name="マップ" sheetId="10" r:id="rId7"/>
-    <sheet name="嗅覚" sheetId="9" r:id="rId8"/>
-    <sheet name="体温" sheetId="8" r:id="rId9"/>
+    <sheet name="ギミック" sheetId="11" r:id="rId8"/>
+    <sheet name="嗅覚" sheetId="9" r:id="rId9"/>
+    <sheet name="体温" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4313,6 +4314,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3657600" cy="914400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="1197429"/>
+          <a:ext cx="3657600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>考え中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -18647,6 +18721,456 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="正方形/長方形 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD6A81-38C9-4C6E-9C6F-44F9E32BF2AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17662071" y="4191001"/>
+          <a:ext cx="299358" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>扉</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="正方形/長方形 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07988036-C46F-4E94-A3BA-F0FA32F66373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16464643" y="5987143"/>
+          <a:ext cx="299357" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>297451</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="正方形/長方形 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2316D295-8BDC-45C0-B648-4676334370A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23647308" y="14069786"/>
+          <a:ext cx="600621" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="正方形/長方形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB4DF8EE-2A1D-4082-BF8B-4A64CC06782D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12273643" y="8980714"/>
+          <a:ext cx="1197428" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>扉</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="正方形/長方形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904F0F1E-219A-40F7-AF71-9C486998E989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11974285" y="12572999"/>
+          <a:ext cx="299358" cy="1197429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>扉</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="正方形/長方形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60501D10-7A19-4F46-9354-86E2B2DC5266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19158857" y="11974286"/>
+          <a:ext cx="299357" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ボ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -25625,118 +26149,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>124913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8068C81D-09DB-45CA-AAB8-8FD25F892CFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="66" idx="4"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="11076214" y="5812699"/>
-          <a:ext cx="1" cy="2269944"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>285070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>288880</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="236" name="直線矢印コネクタ 235">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B52F6A4B-BEB8-4305-B0FA-9FF0B665DAEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="66" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="8980714" y="5374141"/>
-          <a:ext cx="1646465" cy="3810"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
@@ -27099,10 +27511,482 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="正方形/長方形 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3770247-9251-4C3C-ACCB-299627D1FCDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598714" y="12573000"/>
+          <a:ext cx="299357" cy="598714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="正方形/長方形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88DE67A-15FF-4912-9F01-C4E77595EBCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="598714" y="14369143"/>
+          <a:ext cx="299357" cy="1197428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898072" cy="299357"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="テキスト ボックス 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0203C5E1-2EF3-43E0-9097-C1BF0F92BA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="13171714"/>
+          <a:ext cx="898072" cy="299357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ボタン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="898072" cy="898072"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="テキスト ボックス 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A24EA0-92FB-444E-BA2E-3C7D5B7FB938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="15566571"/>
+          <a:ext cx="898072" cy="898072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ロック式扉</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295547</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="899978" cy="898072"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="テキスト ボックス 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF2F19F-C845-43FC-85BC-05F0AF989101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295547" y="13471071"/>
+          <a:ext cx="899978" cy="898072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>色と同じ扉が開く</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2694214" cy="898072"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4740CB52-2DA1-4DE9-A24E-67F12E1B920D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="299357"/>
+          <a:ext cx="2694214" cy="898072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>スイッチ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2694214" cy="898072"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F198430E-4A19-4E0D-B0C4-41B84DBAB147}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="1796143"/>
+          <a:ext cx="2694214" cy="898072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
+            <a:t>焚火</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -27194,79 +28078,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="299357" y="1496786"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>考え中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1197429"/>
           <a:ext cx="3657600" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -27631,6 +28442,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD4CA8-181F-4F84-B583-214EF905D3B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D058DE-AE20-4B63-A37D-2FA94054C2E7}">
   <dimension ref="A1"/>
@@ -27721,11 +28548,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AP44" sqref="AP44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="42" max="42" width="4" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27735,6 +28565,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9AB473-31B4-4D5B-A9BC-267DBB518C11}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A7CEC-AFC4-47A5-AB31-6A76AD09169F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27748,20 +28594,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD4CA8-181F-4F84-B583-214EF905D3B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2495FC16-DCA2-424A-94B9-CD297A78B62C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F147C-2C7D-415E-BB88-CC3200E418ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="6" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="音" sheetId="5" r:id="rId5"/>
     <sheet name="視覚" sheetId="7" r:id="rId6"/>
     <sheet name="マップ" sheetId="10" r:id="rId7"/>
-    <sheet name="ギミック" sheetId="11" r:id="rId8"/>
+    <sheet name="ギミック" sheetId="12" r:id="rId8"/>
     <sheet name="嗅覚" sheetId="9" r:id="rId9"/>
     <sheet name="体温" sheetId="8" r:id="rId10"/>
   </sheets>
@@ -33,9 +33,188 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+  <si>
+    <t>焚火</t>
+    <rPh sb="0" eb="2">
+      <t>タキビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ式扉</t>
+    <rPh sb="4" eb="5">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチを押すことで連動している扉が開く</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くの蛾の習性をもっている敵が集まる</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光源として利用できる</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果</t>
+    <rPh sb="0" eb="2">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動く床</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動式の足場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出用の鍵</t>
+    <rPh sb="0" eb="3">
+      <t>ダッシュツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出口を開けるために必要な鍵</t>
+    <rPh sb="0" eb="3">
+      <t>ダッシュツグチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍵のかかった扉を開けるための鍵</t>
+    <rPh sb="0" eb="1">
+      <t>カギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LED懐中電灯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫外線懐中電灯</t>
+    <rPh sb="0" eb="3">
+      <t>シガイセン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>カイチュウデントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛾の習性を持つ敵が反応する</t>
+    <rPh sb="0" eb="1">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光源効果がある</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲンコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +230,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -60,12 +248,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,9 +277,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4311,79 +4526,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1197429"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>考え中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19541,80 +19683,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="正方形/長方形 193">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884C056B-4562-4612-9DCA-A97E5E9B777C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20955000" y="299357"/>
-          <a:ext cx="898072" cy="299357"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="50000"/>
-              <a:lumOff val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -27856,137 +27924,73 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D468C5C9-3660-40C8-9DCD-93CE78D4BD11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="4267200"/>
+          <a:ext cx="304800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2694214" cy="898072"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4740CB52-2DA1-4DE9-A24E-67F12E1B920D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="299357"/>
-          <a:ext cx="2694214" cy="898072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
-            <a:t>スイッチ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2694214" cy="898072"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F198430E-4A19-4E0D-B0C4-41B84DBAB147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1796143"/>
-          <a:ext cx="2694214" cy="898072"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600"/>
-            <a:t>焚火</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -28078,6 +28082,79 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="299357" y="1496786"/>
+          <a:ext cx="3657600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>考え中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3657600" cy="914400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="1197429"/>
           <a:ext cx="3657600" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28462,7 +28539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D058DE-AE20-4B63-A37D-2FA94054C2E7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BC22" sqref="BC22"/>
     </sheetView>
   </sheetViews>
@@ -28548,8 +28625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -28565,18 +28642,171 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9AB473-31B4-4D5B-A9BC-267DBB518C11}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
+  <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.8984375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981F147C-2C7D-415E-BB88-CC3200E418ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E485F3-8721-4DFC-BA57-FD21223932B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="6" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
@@ -19015,14 +19015,14 @@
     <xdr:from>
       <xdr:col>78</xdr:col>
       <xdr:colOff>297451</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>81</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19037,8 +19037,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23647308" y="14069786"/>
-          <a:ext cx="600621" cy="299357"/>
+          <a:off x="24071851" y="14645640"/>
+          <a:ext cx="616949" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19463,14 +19463,14 @@
     <xdr:from>
       <xdr:col>77</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19485,8 +19485,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23050500" y="14369143"/>
-          <a:ext cx="1496786" cy="299357"/>
+          <a:off x="23469600" y="14950440"/>
+          <a:ext cx="1524000" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23909,8 +23909,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15865930" y="8679451"/>
-          <a:ext cx="1197428" cy="301263"/>
+          <a:off x="16154401" y="8831851"/>
+          <a:ext cx="1219200" cy="312149"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25737,14 +25737,14 @@
     <xdr:from>
       <xdr:col>77</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>299356</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9796</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25759,8 +25759,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23050500" y="11974285"/>
-          <a:ext cx="299357" cy="2394857"/>
+          <a:off x="23469600" y="12512039"/>
+          <a:ext cx="304800" cy="2432957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25811,14 +25811,14 @@
     <xdr:from>
       <xdr:col>74</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -25833,8 +25833,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22152429" y="11674929"/>
-          <a:ext cx="1197428" cy="299357"/>
+          <a:off x="22555200" y="12207240"/>
+          <a:ext cx="1219200" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28625,8 +28625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BY53" sqref="BY53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E485F3-8721-4DFC-BA57-FD21223932B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD1F11-2F72-4270-A5D1-87A7EE3464FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="6" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="7" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="音" sheetId="5" r:id="rId5"/>
     <sheet name="視覚" sheetId="7" r:id="rId6"/>
     <sheet name="マップ" sheetId="10" r:id="rId7"/>
-    <sheet name="ギミック" sheetId="12" r:id="rId8"/>
-    <sheet name="嗅覚" sheetId="9" r:id="rId9"/>
-    <sheet name="体温" sheetId="8" r:id="rId10"/>
+    <sheet name="マップ２" sheetId="13" r:id="rId8"/>
+    <sheet name="ギミック" sheetId="12" r:id="rId9"/>
+    <sheet name="嗅覚" sheetId="9" r:id="rId10"/>
+    <sheet name="体温" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4529,6 +4530,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3657600" cy="914400"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="299357" y="1197429"/>
+          <a:ext cx="3657600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>考え中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -27992,6 +28066,893 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="フローチャート: 処理 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4AB653-BEDD-43AE-862B-7686C9F7AE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2438400"/>
+          <a:ext cx="609600" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="フローチャート: 処理 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8224E1D-B80B-4E57-92CB-D3E636DA560A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="914400"/>
+          <a:ext cx="304800" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="フローチャート: 処理 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73A6D00C-7C36-49EF-AE07-403FE6586CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="914400"/>
+          <a:ext cx="6400800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="フローチャート: 処理 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBA90994-76DB-4D5D-966A-A195918E4C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="914400"/>
+          <a:ext cx="1524000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="フローチャート: 処理 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295DF26E-D569-452A-B578-E812F391CC31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="7010400"/>
+          <a:ext cx="8534400" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="フローチャート: 処理 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FA84D5A-F767-4935-889E-B73B94479730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="914400"/>
+          <a:ext cx="304800" cy="6705600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フローチャート: 処理 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C2AEAC5-3997-4EC8-A3CE-7E06C65F9F09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="4876800"/>
+          <a:ext cx="1219200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="フローチャート: 処理 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F917EAA-063D-447C-9442-89437357078E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="2438400"/>
+          <a:ext cx="1828800" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="フローチャート: 処理 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37423C60-4878-4BE5-B92C-AACFFFC572CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="4572000"/>
+          <a:ext cx="1219200" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="フローチャート: 処理 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D1EB70-29C4-4747-80B2-36E3E00331FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="2438400"/>
+          <a:ext cx="1219200" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="フローチャート: 処理 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{713322D1-EF26-423F-B7B1-789085FB8A9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="4876800"/>
+          <a:ext cx="1219200" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="フローチャート: 処理 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A122990F-13A3-43C6-B4F7-E3F5DE8155DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="914400"/>
+          <a:ext cx="609600" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -28082,79 +29043,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="299357" y="1496786"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>考え中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1197429"/>
           <a:ext cx="3657600" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28520,6 +29408,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A7CEC-AFC4-47A5-AB31-6A76AD09169F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD4CA8-181F-4F84-B583-214EF905D3B7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -28625,7 +29529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="BY53" sqref="BY53"/>
     </sheetView>
   </sheetViews>
@@ -28642,6 +29546,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB9597-396C-445E-88B6-3B30638DB092}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
   <dimension ref="B2:F19"/>
   <sheetViews>
@@ -28808,20 +29728,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A7CEC-AFC4-47A5-AB31-6A76AD09169F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD1F11-2F72-4270-A5D1-87A7EE3464FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DCB55-3448-498F-A1B4-19882A0EFD77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="7" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
@@ -28512,13 +28512,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -28536,7 +28536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7010400" y="4876800"/>
+          <a:off x="7315200" y="4876800"/>
           <a:ext cx="1219200" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -28588,13 +28588,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -28610,7 +28610,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6400800" y="2438400"/>
+          <a:off x="6400800" y="2133600"/>
           <a:ext cx="1828800" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -28660,15 +28660,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -28684,7 +28684,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448800" y="4572000"/>
+          <a:off x="9753600" y="5181600"/>
           <a:ext cx="1219200" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -28736,13 +28736,13 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -28758,7 +28758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448800" y="2438400"/>
+          <a:off x="9448800" y="3048000"/>
           <a:ext cx="1219200" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
@@ -28814,7 +28814,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -28833,7 +28833,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4572000" y="4876800"/>
-          <a:ext cx="1219200" cy="1219200"/>
+          <a:ext cx="1524000" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -29550,7 +29550,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+      <selection activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6DCB55-3448-498F-A1B4-19882A0EFD77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FFB9BF-BAF9-4596-B652-B85EE0E6ACFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="7" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="8" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="視覚" sheetId="7" r:id="rId6"/>
     <sheet name="マップ" sheetId="10" r:id="rId7"/>
     <sheet name="マップ２" sheetId="13" r:id="rId8"/>
-    <sheet name="ギミック" sheetId="12" r:id="rId9"/>
-    <sheet name="嗅覚" sheetId="9" r:id="rId10"/>
-    <sheet name="体温" sheetId="8" r:id="rId11"/>
+    <sheet name="習性一覧" sheetId="14" r:id="rId9"/>
+    <sheet name="ギミック" sheetId="12" r:id="rId10"/>
+    <sheet name="嗅覚" sheetId="9" r:id="rId11"/>
+    <sheet name="体温" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>焚火</t>
     <rPh sb="0" eb="2">
@@ -210,6 +211,128 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>光</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光から逃げる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光に集まる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音に近づく</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音から離れる</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠を置く</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視覚</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>距離に関係なく見えたら追いかける</t>
+    <rPh sb="0" eb="2">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴</t>
+    <rPh sb="0" eb="2">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーとかがみ合わせのように移動する</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -298,7 +421,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -28808,13 +28938,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -29090,6 +29220,17 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD281115-9980-4E21-84D3-055A32E3AF7F}" name="テーブル2" displayName="テーブル2" ref="A1:B13" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:B13" xr:uid="{D28A82C8-18CA-48B4-86FE-77D3FBD292BC}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DBB73805-FE0D-4A22-AA0E-C747CD4D511D}" name="種類" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{60C1F2AD-15B3-41A9-8FDD-36BC628066A4}" name="特徴"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29408,160 +29549,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A7CEC-AFC4-47A5-AB31-6A76AD09169F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD4CA8-181F-4F84-B583-214EF905D3B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D058DE-AE20-4B63-A37D-2FA94054C2E7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC22" sqref="BC22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34882AFE-6733-4E33-BBCE-F94BA3398F59}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE25" sqref="BE25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946528EB-2DF4-44C8-B38B-43C72F1CBB61}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3990F39-96B9-4CC7-8041-14676EF281B3}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FA57F-EA53-4F19-9B20-E6711E249F9D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BY53" sqref="BY53"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="42" max="42" width="4" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB9597-396C-445E-88B6-3B30638DB092}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
   <dimension ref="B2:F19"/>
   <sheetViews>
@@ -29728,4 +29715,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A7CEC-AFC4-47A5-AB31-6A76AD09169F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD4CA8-181F-4F84-B583-214EF905D3B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D058DE-AE20-4B63-A37D-2FA94054C2E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC22" sqref="BC22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34882AFE-6733-4E33-BBCE-F94BA3398F59}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BE25" sqref="BE25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946528EB-2DF4-44C8-B38B-43C72F1CBB61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3990F39-96B9-4CC7-8041-14676EF281B3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FA57F-EA53-4F19-9B20-E6711E249F9D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BY53" sqref="BY53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="42" max="42" width="4" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB9597-396C-445E-88B6-3B30638DB092}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C2B33-9E80-4308-AB9C-94DF0F02CDA6}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.69921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FFB9BF-BAF9-4596-B652-B85EE0E6ACFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598016A2-6249-431A-B3B6-9BD63AF12821}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="8" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="9" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>焚火</t>
     <rPh sb="0" eb="2">
@@ -333,6 +333,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>足が速い</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動スピードが速い</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -29223,10 +29243,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD281115-9980-4E21-84D3-055A32E3AF7F}" name="テーブル2" displayName="テーブル2" ref="A1:B13" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD281115-9980-4E21-84D3-055A32E3AF7F}" name="テーブル2" displayName="テーブル2" ref="A1:B13" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B13" xr:uid="{D28A82C8-18CA-48B4-86FE-77D3FBD292BC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DBB73805-FE0D-4A22-AA0E-C747CD4D511D}" name="種類" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DBB73805-FE0D-4A22-AA0E-C747CD4D511D}" name="種類" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{60C1F2AD-15B3-41A9-8FDD-36BC628066A4}" name="特徴"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -29552,8 +29572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -29875,8 +29895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C2B33-9E80-4308-AB9C-94DF0F02CDA6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -29946,7 +29966,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>

--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FB0E47-8968-4CFC-AD33-6E15AA3B5341}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFF9C8E-57FC-46D2-817F-EA7EF4A9780F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="8" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="10" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,8 @@
     <sheet name="マップ2" sheetId="10" r:id="rId7"/>
     <sheet name="習性一覧" sheetId="14" r:id="rId8"/>
     <sheet name="追加の考え" sheetId="15" r:id="rId9"/>
-    <sheet name="ギミック" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId11"/>
-    <sheet name="視覚" sheetId="7" r:id="rId12"/>
-    <sheet name="嗅覚" sheetId="9" r:id="rId13"/>
-    <sheet name="体温" sheetId="8" r:id="rId14"/>
+    <sheet name="アニメーション" sheetId="16" r:id="rId10"/>
+    <sheet name="ギミック" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>焚火</t>
     <rPh sb="0" eb="2">
@@ -53,22 +50,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>トビラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スイッチを押すことで連動している扉が開く</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンドウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トビラ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -683,12 +664,233 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>欲しいアニメーション</t>
+    <rPh sb="0" eb="1">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>走る</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>有無</t>
+    <rPh sb="0" eb="2">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物を投げる</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>懐中電灯を持つ</t>
+    <rPh sb="0" eb="4">
+      <t>カイチュウデントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵についてはblenderで制作しようと考えている</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間を呼ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーを見つけると叫んで仲間を呼ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラジオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音に関する敵を引き付けたり遠ざけたりできる</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べ物</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPを回復</t>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み物</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的にスタミナの消費を抑えれる</t>
+    <rPh sb="0" eb="3">
+      <t>イチジテキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠に追い込むような動きができるといい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>押すと連動したギミックが起動する</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチを押すことで扉が開く</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +909,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -843,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,6 +1108,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2231,8 +2450,8 @@
       <xdr:rowOff>299356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2249,8 +2468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15566571" y="5987142"/>
-          <a:ext cx="2394857" cy="1197429"/>
+          <a:off x="16459200" y="6090556"/>
+          <a:ext cx="2438399" cy="1224644"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -5138,79 +5357,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126B93C7-5723-4DAF-A037-7C9488A8D622}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1197429"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>考え中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30176,220 +30322,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05D6041-2427-4A1A-8337-11B691277BA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1197429"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>考え中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DC60CC-8104-4DFB-BB63-4577C21FA41D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="304800"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>嗅覚</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3657600" cy="914400"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EB5999-4D0D-4BB6-B862-1C46EA4C5349}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="299357" y="1496786"/>
-          <a:ext cx="3657600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>考え中</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -30703,8 +30635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF9CC83-355C-4150-9178-7E56C2D51895}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC35" sqref="BC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30720,11 +30652,123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
-  <dimension ref="B2:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02124DD-3C05-4857-BE98-B46578E3C857}">
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -30737,16 +30781,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
@@ -30754,66 +30798,82 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="2"/>
@@ -30881,6 +30941,10 @@
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
     </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30888,75 +30952,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02124DD-3C05-4857-BE98-B46578E3C857}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137FA57F-EA53-4F19-9B20-E6711E249F9D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D39A7CEC-AFC4-47A5-AB31-6A76AD09169F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFD4CA8-181F-4F84-B583-214EF905D3B7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D058DE-AE20-4B63-A37D-2FA94054C2E7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC22" sqref="BC22"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30989,14 +30990,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946528EB-2DF4-44C8-B38B-43C72F1CBB61}">
-  <dimension ref="A1"/>
+  <dimension ref="B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="34" spans="2:2" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31025,8 +31032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB9597-396C-445E-88B6-3B30638DB092}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AZ8" sqref="AZ8"/>
+    <sheetView topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31041,7 +31048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC2741A-1B62-4922-AB84-6A7AFB5A8DFC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -31062,7 +31069,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -31073,74 +31080,79 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
@@ -31165,8 +31177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FE6B54-FE5F-417C-BA1A-3C02E202FA88}">
   <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -31180,39 +31192,39 @@
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B4" s="16"/>
       <c r="C4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
@@ -31222,22 +31234,22 @@
     </row>
     <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
       <c r="B8" s="16"/>
       <c r="C8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
@@ -31247,36 +31259,36 @@
     </row>
     <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="D15" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="D16" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFF9C8E-57FC-46D2-817F-EA7EF4A9780F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9DC5C4-2FE9-4C06-B57C-39E8415C8B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="10" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="11" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="追加の考え" sheetId="15" r:id="rId9"/>
     <sheet name="アニメーション" sheetId="16" r:id="rId10"/>
     <sheet name="ギミック" sheetId="12" r:id="rId11"/>
+    <sheet name="メモ" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>焚火</t>
     <rPh sb="0" eb="2">
@@ -885,12 +886,59 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>扉</t>
+    <rPh sb="0" eb="1">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンのインスタンスを取得</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true ↓ false</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>trueになったら扉が動く</t>
+    <rPh sb="9" eb="10">
+      <t>トビラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンが押されたらtrue</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↕</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -922,6 +970,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1053,7 +1107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1111,10 +1165,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30667,12 +30727,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -30767,7 +30827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -30944,6 +31004,67 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87194658-073B-4449-8490-00C8A4E71EBC}">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D5" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D6" s="19" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9DC5C4-2FE9-4C06-B57C-39E8415C8B43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C5291-601F-4325-BC01-C141679F03F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="11" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="7" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="音" sheetId="5" r:id="rId5"/>
     <sheet name="マップ1" sheetId="13" r:id="rId6"/>
     <sheet name="マップ2" sheetId="10" r:id="rId7"/>
-    <sheet name="習性一覧" sheetId="14" r:id="rId8"/>
-    <sheet name="追加の考え" sheetId="15" r:id="rId9"/>
-    <sheet name="アニメーション" sheetId="16" r:id="rId10"/>
-    <sheet name="ギミック" sheetId="12" r:id="rId11"/>
-    <sheet name="メモ" sheetId="17" r:id="rId12"/>
+    <sheet name="マップ3" sheetId="19" r:id="rId8"/>
+    <sheet name="習性一覧" sheetId="14" r:id="rId9"/>
+    <sheet name="追加の考え" sheetId="15" r:id="rId10"/>
+    <sheet name="アニメーション" sheetId="16" r:id="rId11"/>
+    <sheet name="ギミック" sheetId="12" r:id="rId12"/>
+    <sheet name="メモ" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
   <si>
     <t>焚火</t>
     <rPh sb="0" eb="2">
@@ -933,6 +934,27 @@
     <t>↕</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段差</t>
+    <rPh sb="0" eb="2">
+      <t>ダンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂</t>
+    <rPh sb="0" eb="1">
+      <t>サカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1168,13 +1190,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30354,6 +30376,622 @@
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2BAF36-FAA0-4E99-B6A3-CDFC14CDE26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="228600"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93F21461-0BF5-46EF-BA7E-D00629E4720A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="685800"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB36AA4-7848-43E0-897F-8557D125FD8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1143000"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E258473D-C8EF-42E6-9249-B1215C30C068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1600200"/>
+          <a:ext cx="457200" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B324359F-F976-494D-99C7-FF46D134270C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="1371600"/>
+          <a:ext cx="685800" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B52759-EC9D-49D6-BFDA-E77DBDC5D02B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5257800" y="1371600"/>
+          <a:ext cx="3657600" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56BA2DD-9602-463E-8AAE-F407FA7621C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="2743200"/>
+          <a:ext cx="1600200" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CA6045-3F8D-41C1-AA2F-AD220DE45BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="3429000"/>
+          <a:ext cx="685800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89683A12-9BEB-4D2D-8EDA-42974CB84FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="2933700"/>
+          <a:ext cx="685800" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="58000">
+              <a:schemeClr val="accent2">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+                <a:lumMod val="99000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -30712,6 +31350,131 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FE6B54-FE5F-417C-BA1A-3C02E202FA88}">
+  <dimension ref="A2:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B4" s="16"/>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B5" s="16"/>
+      <c r="C5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="16"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
+      <c r="B8" s="16"/>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02124DD-3C05-4857-BE98-B46578E3C857}">
   <dimension ref="A2:H12"/>
   <sheetViews>
@@ -30727,12 +31490,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -30823,12 +31586,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564562BA-2026-4A19-A949-F67066D9E771}">
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -31012,12 +31775,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87194658-073B-4449-8490-00C8A4E71EBC}">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -31041,7 +31804,7 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -31153,15 +31916,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB9597-396C-445E-88B6-3B30638DB092}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="BK10" sqref="BK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31170,7 +31934,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="Z45" sqref="Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31186,11 +31950,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D6CF55-4C1B-4673-A92C-6FDBA611330C}">
+  <dimension ref="E1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AZ17" sqref="AZ17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="5:5" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.45">
+      <c r="E6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C2B33-9E80-4308-AB9C-94DF0F02CDA6}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -31292,129 +32089,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60FE6B54-FE5F-417C-BA1A-3C02E202FA88}">
-  <dimension ref="A2:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="62" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B4" s="16"/>
-      <c r="C4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B5" s="16"/>
-      <c r="C5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="16"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="36" x14ac:dyDescent="0.45">
-      <c r="B8" s="16"/>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="16"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="13" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355C5291-601F-4325-BC01-C141679F03F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D689A95-D5F3-48D9-A575-3094D6EFDCCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="7" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="8" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>焚火</t>
     <rPh sb="0" eb="2">
@@ -955,6 +955,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>色</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチの色で寄ってきて押す敵</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1129,7 +1143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,6 +1205,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -31024,8 +31041,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD281115-9980-4E21-84D3-055A32E3AF7F}" name="テーブル2" displayName="テーブル2" ref="A1:B13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:B13" xr:uid="{D28A82C8-18CA-48B4-86FE-77D3FBD292BC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DD281115-9980-4E21-84D3-055A32E3AF7F}" name="テーブル2" displayName="テーブル2" ref="A1:B14" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B14" xr:uid="{D28A82C8-18CA-48B4-86FE-77D3FBD292BC}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{DBB73805-FE0D-4A22-AA0E-C747CD4D511D}" name="種類" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{60C1F2AD-15B3-41A9-8FDD-36BC628066A4}" name="特徴"/>
@@ -31490,12 +31507,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="63.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
@@ -31953,7 +31970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24D6CF55-4C1B-4673-A92C-6FDBA611330C}">
   <dimension ref="E1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AZ17" sqref="AZ17"/>
     </sheetView>
   </sheetViews>
@@ -31984,16 +32001,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C2B33-9E80-4308-AB9C-94DF0F02CDA6}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -32019,67 +32036,75 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
+++ b/2年生 後期 ゲーム制作/資料/フローチャート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dogpo\Desktop\2023Game\07Nakamoto\2年生 後期 ゲーム制作\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D689A95-D5F3-48D9-A575-3094D6EFDCCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B6DB8E-39E1-4183-A19D-15341D911A22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="8" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328" activeTab="3" xr2:uid="{3C3784D3-9BC6-4387-912C-6E410A2F3C76}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤー" sheetId="1" r:id="rId1"/>
@@ -2615,13 +2615,22 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>E</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>左クリック</a:t>
+            <a:t>キー</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -2714,7 +2723,7 @@
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>右クリック</a:t>
+            <a:t>左クリック</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1200">
             <a:solidFill>
@@ -30521,18 +30530,47 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent2">
+                <a:tint val="66000"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent2">
+                <a:tint val="44500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent2">
+                <a:tint val="23500"/>
+                <a:satMod val="160000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -31350,8 +31388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF9CC83-355C-4150-9178-7E56C2D51895}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BC35" sqref="BC35"/>
+    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31495,7 +31533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02124DD-3C05-4857-BE98-B46578E3C857}">
   <dimension ref="A2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -31608,7 +31646,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -31797,7 +31835,7 @@
   <dimension ref="B2:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -31893,7 +31931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946528EB-2DF4-44C8-B38B-43C72F1CBB61}">
   <dimension ref="B34"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
@@ -31934,7 +31972,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="BK10" sqref="BK10"/>
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -31971,7 +32009,7 @@
   <dimension ref="E1:E6"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AZ17" sqref="AZ17"/>
+      <selection activeCell="BI20" sqref="BI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -32003,8 +32041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40C2B33-9E80-4308-AB9C-94DF0F02CDA6}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
